--- a/dataanalysis/data/predictions/1600/08271525_1529.xlsx
+++ b/dataanalysis/data/predictions/1600/08271525_1529.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="163">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-27</t>
   </si>
   <si>
@@ -500,12 +503,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -863,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AI84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,19 +969,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.17</v>
@@ -1002,7 +1002,7 @@
         <v>70571.88</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -1043,8 +1043,23 @@
       <c r="W2">
         <v>0.32</v>
       </c>
+      <c r="X2">
+        <v>-0.17</v>
+      </c>
+      <c r="Y2">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>0.42</v>
+      </c>
       <c r="AC2" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1052,22 +1067,25 @@
       <c r="AG2">
         <v>4.388000011444092</v>
       </c>
-      <c r="AH2" t="s">
-        <v>162</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.46</v>
@@ -1085,7 +1103,7 @@
         <v>769926.76</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1126,8 +1144,23 @@
       <c r="W3">
         <v>0.23</v>
       </c>
+      <c r="X3">
+        <v>1.76</v>
+      </c>
+      <c r="Y3">
+        <v>407.2</v>
+      </c>
+      <c r="Z3">
+        <v>1.76</v>
+      </c>
       <c r="AC3" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1135,22 +1168,25 @@
       <c r="AG3">
         <v>3.751874923706055</v>
       </c>
-      <c r="AH3" t="s">
-        <v>162</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300066</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2.78</v>
@@ -1168,7 +1204,7 @@
         <v>153496.06</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K4">
         <v>15</v>
@@ -1209,8 +1245,23 @@
       <c r="W4">
         <v>-0.28</v>
       </c>
+      <c r="X4">
+        <v>-1.3</v>
+      </c>
+      <c r="Y4">
+        <v>8.85</v>
+      </c>
+      <c r="Z4">
+        <v>4.24</v>
+      </c>
       <c r="AC4" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1218,22 +1269,25 @@
       <c r="AG4">
         <v>1.363132357597351</v>
       </c>
-      <c r="AH4" t="s">
-        <v>162</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300085</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-3.76</v>
@@ -1251,7 +1305,7 @@
         <v>436527.31</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1292,8 +1346,23 @@
       <c r="W5">
         <v>0.88</v>
       </c>
+      <c r="X5">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>57.72</v>
+      </c>
+      <c r="Z5">
+        <v>10.51</v>
+      </c>
       <c r="AC5" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1301,22 +1370,25 @@
       <c r="AG5">
         <v>1.200085401535034</v>
       </c>
-      <c r="AH5" t="s">
-        <v>162</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300113</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-3.81</v>
@@ -1334,7 +1406,7 @@
         <v>175561.15</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1375,8 +1447,23 @@
       <c r="W6">
         <v>-1.82</v>
       </c>
+      <c r="X6">
+        <v>0.29</v>
+      </c>
+      <c r="Y6">
+        <v>27.85</v>
+      </c>
+      <c r="Z6">
+        <v>1.31</v>
+      </c>
       <c r="AC6" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1384,22 +1471,25 @@
       <c r="AG6">
         <v>1.06090235710144</v>
       </c>
-      <c r="AH6" t="s">
-        <v>162</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300127</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.61</v>
@@ -1417,7 +1507,7 @@
         <v>132856.22</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1458,8 +1548,23 @@
       <c r="W7">
         <v>-0.38</v>
       </c>
+      <c r="X7">
+        <v>6.26</v>
+      </c>
+      <c r="Y7">
+        <v>36.3</v>
+      </c>
+      <c r="Z7">
+        <v>7.21</v>
+      </c>
       <c r="AC7" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1467,22 +1572,25 @@
       <c r="AG7">
         <v>-6.817821979522705</v>
       </c>
-      <c r="AH7" t="s">
-        <v>162</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300192</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-10.33</v>
@@ -1500,7 +1608,7 @@
         <v>247573.86</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1541,8 +1649,23 @@
       <c r="W8">
         <v>-0.38</v>
       </c>
+      <c r="X8">
+        <v>2.25</v>
+      </c>
+      <c r="Y8">
+        <v>24.57</v>
+      </c>
+      <c r="Z8">
+        <v>4.11</v>
+      </c>
       <c r="AC8" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1550,22 +1673,25 @@
       <c r="AG8">
         <v>2.259661436080933</v>
       </c>
-      <c r="AH8" t="s">
-        <v>162</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300218</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>13.05</v>
@@ -1583,7 +1709,7 @@
         <v>99448.63</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1624,8 +1750,23 @@
       <c r="W9">
         <v>0.97</v>
       </c>
+      <c r="X9">
+        <v>-0.55</v>
+      </c>
+      <c r="Y9">
+        <v>26.2</v>
+      </c>
+      <c r="Z9">
+        <v>2.18</v>
+      </c>
       <c r="AC9" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1633,22 +1774,25 @@
       <c r="AG9">
         <v>1.409128904342651</v>
       </c>
-      <c r="AH9" t="s">
-        <v>162</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300222</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>19.19</v>
@@ -1666,7 +1810,7 @@
         <v>372926.11</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1707,8 +1851,23 @@
       <c r="W10">
         <v>-0.52</v>
       </c>
+      <c r="X10">
+        <v>-4.48</v>
+      </c>
+      <c r="Y10">
+        <v>14.37</v>
+      </c>
+      <c r="Z10">
+        <v>-4.01</v>
+      </c>
       <c r="AC10" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1716,22 +1875,25 @@
       <c r="AG10">
         <v>-0.03631684556603432</v>
       </c>
-      <c r="AH10" t="s">
-        <v>162</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300308</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.54</v>
@@ -1749,7 +1911,7 @@
         <v>2007702.94</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11">
         <v>32</v>
@@ -1790,8 +1952,23 @@
       <c r="W11">
         <v>-2.08</v>
       </c>
+      <c r="X11">
+        <v>10.44</v>
+      </c>
+      <c r="Y11">
+        <v>359.58</v>
+      </c>
+      <c r="Z11">
+        <v>10.61</v>
+      </c>
       <c r="AC11" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1799,22 +1976,25 @@
       <c r="AG11">
         <v>125.7284774780273</v>
       </c>
-      <c r="AH11" t="s">
-        <v>162</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300328</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-5.74</v>
@@ -1832,7 +2012,7 @@
         <v>233983.64</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1873,8 +2053,23 @@
       <c r="W12">
         <v>0.4</v>
       </c>
+      <c r="X12">
+        <v>3.02</v>
+      </c>
+      <c r="Y12">
+        <v>17.78</v>
+      </c>
+      <c r="Z12">
+        <v>3.19</v>
+      </c>
       <c r="AC12" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1882,22 +2077,25 @@
       <c r="AG12">
         <v>7.171674251556396</v>
       </c>
-      <c r="AH12" t="s">
-        <v>162</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300339</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.79</v>
@@ -1915,7 +2113,7 @@
         <v>832156.5699999999</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1956,8 +2154,23 @@
       <c r="W13">
         <v>5.68</v>
       </c>
+      <c r="X13">
+        <v>3.75</v>
+      </c>
+      <c r="Y13">
+        <v>69.2</v>
+      </c>
+      <c r="Z13">
+        <v>4.28</v>
+      </c>
       <c r="AC13" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1965,22 +2178,25 @@
       <c r="AG13">
         <v>2.617440700531006</v>
       </c>
-      <c r="AH13" t="s">
-        <v>162</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300352</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0.14</v>
@@ -1998,7 +2214,7 @@
         <v>158803.34</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2039,8 +2255,23 @@
       <c r="W14">
         <v>0.64</v>
       </c>
+      <c r="X14">
+        <v>-4.67</v>
+      </c>
+      <c r="Y14">
+        <v>6.88</v>
+      </c>
+      <c r="Z14">
+        <v>-2.69</v>
+      </c>
       <c r="AC14" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2048,22 +2279,25 @@
       <c r="AG14">
         <v>8.982976913452148</v>
       </c>
-      <c r="AH14" t="s">
-        <v>162</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300364</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-9.1</v>
@@ -2081,7 +2315,7 @@
         <v>545885.59</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2122,8 +2356,23 @@
       <c r="W15">
         <v>-0.02</v>
       </c>
+      <c r="X15">
+        <v>-3.86</v>
+      </c>
+      <c r="Y15">
+        <v>32.1</v>
+      </c>
+      <c r="Z15">
+        <v>-0.77</v>
+      </c>
       <c r="AC15" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2131,22 +2380,25 @@
       <c r="AG15">
         <v>24.19640159606934</v>
       </c>
-      <c r="AH15" t="s">
-        <v>162</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300378</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.52</v>
@@ -2164,7 +2416,7 @@
         <v>243283.02</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2205,8 +2457,23 @@
       <c r="W16">
         <v>0.2</v>
       </c>
+      <c r="X16">
+        <v>-5.54</v>
+      </c>
+      <c r="Y16">
+        <v>59.89</v>
+      </c>
+      <c r="Z16">
+        <v>-2.46</v>
+      </c>
       <c r="AC16" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2214,22 +2481,25 @@
       <c r="AG16">
         <v>5.831211090087891</v>
       </c>
-      <c r="AH16" t="s">
-        <v>162</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300394</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>3.61</v>
@@ -2247,7 +2517,7 @@
         <v>803158.0699999999</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17">
         <v>22</v>
@@ -2288,8 +2558,23 @@
       <c r="W17">
         <v>-2.74</v>
       </c>
+      <c r="X17">
+        <v>20</v>
+      </c>
+      <c r="Y17">
+        <v>180.01</v>
+      </c>
+      <c r="Z17">
+        <v>20</v>
+      </c>
       <c r="AC17" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2297,22 +2582,25 @@
       <c r="AG17">
         <v>-18.04575157165527</v>
       </c>
-      <c r="AH17" t="s">
-        <v>162</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300433</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.63</v>
@@ -2330,7 +2618,7 @@
         <v>658899.3</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2371,8 +2659,23 @@
       <c r="W18">
         <v>-0.45</v>
       </c>
+      <c r="X18">
+        <v>1.34</v>
+      </c>
+      <c r="Y18">
+        <v>31.95</v>
+      </c>
+      <c r="Z18">
+        <v>1.75</v>
+      </c>
       <c r="AC18" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2380,22 +2683,25 @@
       <c r="AG18">
         <v>19.32003784179688</v>
       </c>
-      <c r="AH18" t="s">
-        <v>162</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300458</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>2.9</v>
@@ -2413,7 +2719,7 @@
         <v>502795.32</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2454,8 +2760,23 @@
       <c r="W19">
         <v>-1.08</v>
       </c>
+      <c r="X19">
+        <v>4.33</v>
+      </c>
+      <c r="Y19">
+        <v>48.71</v>
+      </c>
+      <c r="Z19">
+        <v>4.96</v>
+      </c>
       <c r="AC19" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2463,22 +2784,25 @@
       <c r="AG19">
         <v>-12.59321784973145</v>
       </c>
-      <c r="AH19" t="s">
-        <v>162</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300469</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-3.16</v>
@@ -2496,7 +2820,7 @@
         <v>77112.78</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2537,8 +2861,23 @@
       <c r="W20">
         <v>-2.8</v>
       </c>
+      <c r="X20">
+        <v>6.85</v>
+      </c>
+      <c r="Y20">
+        <v>56.8</v>
+      </c>
+      <c r="Z20">
+        <v>9.65</v>
+      </c>
       <c r="AC20" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2546,22 +2885,25 @@
       <c r="AG20">
         <v>24.28884506225586</v>
       </c>
-      <c r="AH20" t="s">
-        <v>162</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300486</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.65</v>
@@ -2579,7 +2921,7 @@
         <v>268308.81</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2620,8 +2962,23 @@
       <c r="W21">
         <v>0.03</v>
       </c>
+      <c r="X21">
+        <v>-6.64</v>
+      </c>
+      <c r="Y21">
+        <v>23.89</v>
+      </c>
+      <c r="Z21">
+        <v>3.06</v>
+      </c>
       <c r="AC21" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2629,22 +2986,25 @@
       <c r="AG21">
         <v>3.260684967041016</v>
       </c>
-      <c r="AH21" t="s">
-        <v>162</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300491</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.74</v>
@@ -2662,7 +3022,7 @@
         <v>71645.52</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2703,8 +3063,23 @@
       <c r="W22">
         <v>0.06</v>
       </c>
+      <c r="X22">
+        <v>19.99</v>
+      </c>
+      <c r="Y22">
+        <v>36.5</v>
+      </c>
+      <c r="Z22">
+        <v>19.99</v>
+      </c>
       <c r="AC22" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2712,22 +3087,25 @@
       <c r="AG22">
         <v>4.092239856719971</v>
       </c>
-      <c r="AH22" t="s">
-        <v>162</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300496</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>11.69</v>
@@ -2745,7 +3123,7 @@
         <v>619708.83</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2786,8 +3164,23 @@
       <c r="W23">
         <v>0.67</v>
       </c>
+      <c r="X23">
+        <v>1.84</v>
+      </c>
+      <c r="Y23">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="Z23">
+        <v>4.06</v>
+      </c>
       <c r="AC23" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2795,22 +3188,25 @@
       <c r="AG23">
         <v>-5.830198287963867</v>
       </c>
-      <c r="AH23" t="s">
-        <v>162</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300499</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-0.63</v>
@@ -2828,7 +3224,7 @@
         <v>286274.64</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2869,8 +3265,23 @@
       <c r="W24">
         <v>-0.44</v>
       </c>
+      <c r="X24">
+        <v>3.84</v>
+      </c>
+      <c r="Y24">
+        <v>33.2</v>
+      </c>
+      <c r="Z24">
+        <v>4.4</v>
+      </c>
       <c r="AC24" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2878,22 +3289,25 @@
       <c r="AG24">
         <v>2.189135313034058</v>
       </c>
-      <c r="AH24" t="s">
-        <v>162</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300502</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>9.32</v>
@@ -2911,7 +3325,7 @@
         <v>2275121.77</v>
       </c>
       <c r="J25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K25">
         <v>46</v>
@@ -2952,8 +3366,23 @@
       <c r="W25">
         <v>-0.21</v>
       </c>
+      <c r="X25">
+        <v>15.12</v>
+      </c>
+      <c r="Y25">
+        <v>355.19</v>
+      </c>
+      <c r="Z25">
+        <v>15.2</v>
+      </c>
       <c r="AC25" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2961,22 +3390,25 @@
       <c r="AG25">
         <v>2.015501260757446</v>
       </c>
-      <c r="AH25" t="s">
-        <v>162</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300503</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-2.88</v>
@@ -2994,7 +3426,7 @@
         <v>116569.89</v>
       </c>
       <c r="J26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3035,8 +3467,23 @@
       <c r="W26">
         <v>-2.7</v>
       </c>
+      <c r="X26">
+        <v>0.26</v>
+      </c>
+      <c r="Y26">
+        <v>30.99</v>
+      </c>
+      <c r="Z26">
+        <v>2.04</v>
+      </c>
       <c r="AC26" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3044,22 +3491,25 @@
       <c r="AG26">
         <v>2.754668235778809</v>
       </c>
-      <c r="AH26" t="s">
-        <v>162</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300547</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.72</v>
@@ -3077,7 +3527,7 @@
         <v>186335.46</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K27">
         <v>9</v>
@@ -3118,8 +3568,23 @@
       <c r="W27">
         <v>-0.45</v>
       </c>
+      <c r="X27">
+        <v>5.9</v>
+      </c>
+      <c r="Y27">
+        <v>54.36</v>
+      </c>
+      <c r="Z27">
+        <v>6.61</v>
+      </c>
       <c r="AC27" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3127,22 +3592,25 @@
       <c r="AG27">
         <v>7.455306053161621</v>
       </c>
-      <c r="AH27" t="s">
-        <v>162</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300548</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>12.49</v>
@@ -3160,7 +3628,7 @@
         <v>467700.84</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K28">
         <v>32</v>
@@ -3201,8 +3669,23 @@
       <c r="W28">
         <v>-1.21</v>
       </c>
+      <c r="X28">
+        <v>18.84</v>
+      </c>
+      <c r="Y28">
+        <v>160.04</v>
+      </c>
+      <c r="Z28">
+        <v>18.84</v>
+      </c>
       <c r="AC28" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3210,22 +3693,25 @@
       <c r="AG28">
         <v>33.88003158569336</v>
       </c>
-      <c r="AH28" t="s">
-        <v>162</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300604</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>16.98</v>
@@ -3243,7 +3729,7 @@
         <v>735635.71</v>
       </c>
       <c r="J29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3284,8 +3770,23 @@
       <c r="W29">
         <v>-2.7</v>
       </c>
+      <c r="X29">
+        <v>2.9</v>
+      </c>
+      <c r="Y29">
+        <v>62.5</v>
+      </c>
+      <c r="Z29">
+        <v>4.88</v>
+      </c>
       <c r="AC29" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3293,22 +3794,25 @@
       <c r="AG29">
         <v>-7.799707889556885</v>
       </c>
-      <c r="AH29" t="s">
-        <v>162</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300620</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.15</v>
@@ -3326,7 +3830,7 @@
         <v>288770.82</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -3367,8 +3871,23 @@
       <c r="W30">
         <v>-0.08</v>
       </c>
+      <c r="X30">
+        <v>12.21</v>
+      </c>
+      <c r="Y30">
+        <v>103.2</v>
+      </c>
+      <c r="Z30">
+        <v>14.64</v>
+      </c>
       <c r="AC30" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3376,22 +3895,25 @@
       <c r="AG30">
         <v>-0.4055829048156738</v>
       </c>
-      <c r="AH30" t="s">
-        <v>162</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300642</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-5.53</v>
@@ -3409,7 +3931,7 @@
         <v>80913.64</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3450,8 +3972,23 @@
       <c r="W31">
         <v>0.17</v>
       </c>
+      <c r="X31">
+        <v>-5.41</v>
+      </c>
+      <c r="Y31">
+        <v>29.88</v>
+      </c>
+      <c r="Z31">
+        <v>1.05</v>
+      </c>
       <c r="AC31" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3459,22 +3996,25 @@
       <c r="AG31">
         <v>-13.65712070465088</v>
       </c>
-      <c r="AH31" t="s">
-        <v>162</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300686</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-4.25</v>
@@ -3492,7 +4032,7 @@
         <v>63207.75</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3533,8 +4073,23 @@
       <c r="W32">
         <v>-0.44</v>
       </c>
+      <c r="X32">
+        <v>-1.33</v>
+      </c>
+      <c r="Y32">
+        <v>13.51</v>
+      </c>
+      <c r="Z32">
+        <v>-0.15</v>
+      </c>
       <c r="AC32" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3542,22 +4097,25 @@
       <c r="AG32">
         <v>-4.759087085723877</v>
       </c>
-      <c r="AH32" t="s">
-        <v>162</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300724</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-2.87</v>
@@ -3575,7 +4133,7 @@
         <v>229530.47</v>
       </c>
       <c r="J33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3616,8 +4174,23 @@
       <c r="W33">
         <v>0.5</v>
       </c>
+      <c r="X33">
+        <v>17.19</v>
+      </c>
+      <c r="Y33">
+        <v>101</v>
+      </c>
+      <c r="Z33">
+        <v>19.84</v>
+      </c>
       <c r="AC33" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3625,22 +4198,25 @@
       <c r="AG33">
         <v>1.730649471282959</v>
       </c>
-      <c r="AH33" t="s">
-        <v>162</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300740</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-3.07</v>
@@ -3658,7 +4234,7 @@
         <v>95746.71000000001</v>
       </c>
       <c r="J34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3699,8 +4275,23 @@
       <c r="W34">
         <v>0.04</v>
       </c>
+      <c r="X34">
+        <v>-1.43</v>
+      </c>
+      <c r="Y34">
+        <v>24.07</v>
+      </c>
+      <c r="Z34">
+        <v>4.33</v>
+      </c>
       <c r="AC34" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3708,22 +4299,25 @@
       <c r="AG34">
         <v>0.6774922609329224</v>
       </c>
-      <c r="AH34" t="s">
-        <v>162</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300748</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.63</v>
@@ -3741,7 +4335,7 @@
         <v>711759.46</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K35">
         <v>34</v>
@@ -3782,8 +4376,23 @@
       <c r="W35">
         <v>0.6</v>
       </c>
+      <c r="X35">
+        <v>6.8</v>
+      </c>
+      <c r="Y35">
+        <v>44.46</v>
+      </c>
+      <c r="Z35">
+        <v>11.48</v>
+      </c>
       <c r="AC35" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3791,22 +4400,25 @@
       <c r="AG35">
         <v>-17.70073890686035</v>
       </c>
-      <c r="AH35" t="s">
-        <v>162</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300757</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-0.82</v>
@@ -3824,7 +4436,7 @@
         <v>365003.44</v>
       </c>
       <c r="J36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3865,8 +4477,23 @@
       <c r="W36">
         <v>-1.03</v>
       </c>
+      <c r="X36">
+        <v>0.83</v>
+      </c>
+      <c r="Y36">
+        <v>273</v>
+      </c>
+      <c r="Z36">
+        <v>2.72</v>
+      </c>
       <c r="AC36" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3874,22 +4501,25 @@
       <c r="AG36">
         <v>1.399015188217163</v>
       </c>
-      <c r="AH36" t="s">
-        <v>162</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300767</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.32</v>
@@ -3907,7 +4537,7 @@
         <v>85625.5</v>
       </c>
       <c r="J37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -3948,8 +4578,23 @@
       <c r="W37">
         <v>3.41</v>
       </c>
+      <c r="X37">
+        <v>-5.24</v>
+      </c>
+      <c r="Y37">
+        <v>25.4</v>
+      </c>
+      <c r="Z37">
+        <v>1.6</v>
+      </c>
       <c r="AC37" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3957,22 +4602,25 @@
       <c r="AG37">
         <v>7.140877723693848</v>
       </c>
-      <c r="AH37" t="s">
-        <v>162</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300803</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-4.29</v>
@@ -3990,7 +4638,7 @@
         <v>1151922.07</v>
       </c>
       <c r="J38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K38">
         <v>12</v>
@@ -4031,8 +4679,23 @@
       <c r="W38">
         <v>0.18</v>
       </c>
+      <c r="X38">
+        <v>3.04</v>
+      </c>
+      <c r="Y38">
+        <v>158.8</v>
+      </c>
+      <c r="Z38">
+        <v>4.63</v>
+      </c>
       <c r="AC38" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4040,22 +4703,25 @@
       <c r="AG38">
         <v>7.609340190887451</v>
       </c>
-      <c r="AH38" t="s">
-        <v>162</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300811</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>2.86</v>
@@ -4073,7 +4739,7 @@
         <v>122175.94</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -4114,8 +4780,23 @@
       <c r="W39">
         <v>-0.4</v>
       </c>
+      <c r="X39">
+        <v>8.33</v>
+      </c>
+      <c r="Y39">
+        <v>78.45</v>
+      </c>
+      <c r="Z39">
+        <v>8.960000000000001</v>
+      </c>
       <c r="AC39" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4123,22 +4804,25 @@
       <c r="AG39">
         <v>19.850830078125</v>
       </c>
-      <c r="AH39" t="s">
-        <v>162</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300835</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>4.95</v>
@@ -4156,7 +4840,7 @@
         <v>104459.12</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K40">
         <v>27</v>
@@ -4197,8 +4881,23 @@
       <c r="W40">
         <v>-0.4</v>
       </c>
+      <c r="X40">
+        <v>2.02</v>
+      </c>
+      <c r="Y40">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="Z40">
+        <v>3.87</v>
+      </c>
       <c r="AC40" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4206,22 +4905,25 @@
       <c r="AG40">
         <v>8.504108428955078</v>
       </c>
-      <c r="AH40" t="s">
-        <v>162</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300843</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>4.81</v>
@@ -4239,7 +4941,7 @@
         <v>105883.92</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -4280,8 +4982,23 @@
       <c r="W41">
         <v>0.38</v>
       </c>
+      <c r="X41">
+        <v>17.28</v>
+      </c>
+      <c r="Y41">
+        <v>66.38</v>
+      </c>
+      <c r="Z41">
+        <v>19.95</v>
+      </c>
       <c r="AC41" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4289,22 +5006,25 @@
       <c r="AG41">
         <v>2.784198999404907</v>
       </c>
-      <c r="AH41" t="s">
-        <v>162</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300870</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>4.85</v>
@@ -4322,7 +5042,7 @@
         <v>262418.56</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K42">
         <v>11</v>
@@ -4363,8 +5083,23 @@
       <c r="W42">
         <v>-0.32</v>
       </c>
+      <c r="X42">
+        <v>6.89</v>
+      </c>
+      <c r="Y42">
+        <v>281.9</v>
+      </c>
+      <c r="Z42">
+        <v>7.6</v>
+      </c>
       <c r="AC42" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4372,22 +5107,25 @@
       <c r="AG42">
         <v>-4.310312271118164</v>
       </c>
-      <c r="AH42" t="s">
-        <v>162</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300913</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.41</v>
@@ -4405,7 +5143,7 @@
         <v>125215.54</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4446,8 +5184,23 @@
       <c r="W43">
         <v>-0.34</v>
       </c>
+      <c r="X43">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="Z43">
+        <v>16.17</v>
+      </c>
       <c r="AC43" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4455,22 +5208,25 @@
       <c r="AG43">
         <v>12.43396282196045</v>
       </c>
-      <c r="AH43" t="s">
-        <v>162</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300953</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.77</v>
@@ -4488,7 +5244,7 @@
         <v>148307.79</v>
       </c>
       <c r="J44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4529,8 +5285,23 @@
       <c r="W44">
         <v>0.08</v>
       </c>
+      <c r="X44">
+        <v>-3.46</v>
+      </c>
+      <c r="Y44">
+        <v>139.99</v>
+      </c>
+      <c r="Z44">
+        <v>4.04</v>
+      </c>
       <c r="AC44" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4538,22 +5309,25 @@
       <c r="AG44">
         <v>16.02545928955078</v>
       </c>
-      <c r="AH44" t="s">
-        <v>162</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300971</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.23</v>
@@ -4571,7 +5345,7 @@
         <v>97217.50999999999</v>
       </c>
       <c r="J45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4612,8 +5386,23 @@
       <c r="W45">
         <v>0.44</v>
       </c>
+      <c r="X45">
+        <v>-1.32</v>
+      </c>
+      <c r="Y45">
+        <v>26.91</v>
+      </c>
+      <c r="Z45">
+        <v>1.55</v>
+      </c>
       <c r="AC45" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4621,22 +5410,25 @@
       <c r="AG45">
         <v>1.341291546821594</v>
       </c>
-      <c r="AH45" t="s">
-        <v>162</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300991</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.49</v>
@@ -4654,7 +5446,7 @@
         <v>52917.16</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K46">
         <v>4</v>
@@ -4695,8 +5487,23 @@
       <c r="W46">
         <v>-0.99</v>
       </c>
+      <c r="X46">
+        <v>2.56</v>
+      </c>
+      <c r="Y46">
+        <v>44.98</v>
+      </c>
+      <c r="Z46">
+        <v>4.6</v>
+      </c>
       <c r="AC46" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4704,22 +5511,25 @@
       <c r="AG46">
         <v>-3.288224935531616</v>
       </c>
-      <c r="AH46" t="s">
-        <v>162</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301007</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>3.74</v>
@@ -4737,7 +5547,7 @@
         <v>63932.98</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K47">
         <v>11</v>
@@ -4778,8 +5588,23 @@
       <c r="W47">
         <v>-1.79</v>
       </c>
+      <c r="X47">
+        <v>2.61</v>
+      </c>
+      <c r="Y47">
+        <v>49.5</v>
+      </c>
+      <c r="Z47">
+        <v>2.65</v>
+      </c>
       <c r="AC47" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4787,22 +5612,25 @@
       <c r="AG47">
         <v>7.66515588760376</v>
       </c>
-      <c r="AH47" t="s">
-        <v>162</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301008</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>2.6</v>
@@ -4820,7 +5648,7 @@
         <v>71205.00999999999</v>
       </c>
       <c r="J48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4861,8 +5689,23 @@
       <c r="W48">
         <v>-1.59</v>
       </c>
+      <c r="X48">
+        <v>-2.68</v>
+      </c>
+      <c r="Y48">
+        <v>35.01</v>
+      </c>
+      <c r="Z48">
+        <v>5.45</v>
+      </c>
       <c r="AC48" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4870,22 +5713,25 @@
       <c r="AG48">
         <v>15.26676177978516</v>
       </c>
-      <c r="AH48" t="s">
-        <v>162</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301018</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.23</v>
@@ -4903,7 +5749,7 @@
         <v>137757.03</v>
       </c>
       <c r="J49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K49">
         <v>11</v>
@@ -4944,8 +5790,23 @@
       <c r="W49">
         <v>0.47</v>
       </c>
+      <c r="X49">
+        <v>12.28</v>
+      </c>
+      <c r="Y49">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>13.32</v>
+      </c>
       <c r="AC49" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4953,22 +5814,25 @@
       <c r="AG49">
         <v>1.873367667198181</v>
       </c>
-      <c r="AH49" t="s">
-        <v>162</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301052</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.64</v>
@@ -4986,7 +5850,7 @@
         <v>47569.3</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -5027,8 +5891,23 @@
       <c r="W50">
         <v>-0.27</v>
       </c>
+      <c r="X50">
+        <v>1.03</v>
+      </c>
+      <c r="Y50">
+        <v>76.78</v>
+      </c>
+      <c r="Z50">
+        <v>1.03</v>
+      </c>
       <c r="AC50" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5036,22 +5915,25 @@
       <c r="AG50">
         <v>2.336030721664429</v>
       </c>
-      <c r="AH50" t="s">
-        <v>162</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301128</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-2.01</v>
@@ -5069,7 +5951,7 @@
         <v>137329.1</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K51">
         <v>11</v>
@@ -5110,8 +5992,23 @@
       <c r="W51">
         <v>-0.29</v>
       </c>
+      <c r="X51">
+        <v>2.39</v>
+      </c>
+      <c r="Y51">
+        <v>105.5</v>
+      </c>
+      <c r="Z51">
+        <v>3.62</v>
+      </c>
       <c r="AC51" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5119,22 +6016,25 @@
       <c r="AG51">
         <v>5.730394840240479</v>
       </c>
-      <c r="AH51" t="s">
-        <v>162</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301165</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.27</v>
@@ -5152,7 +6052,7 @@
         <v>156113.36</v>
       </c>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K52">
         <v>12</v>
@@ -5193,8 +6093,23 @@
       <c r="W52">
         <v>0.14</v>
       </c>
+      <c r="X52">
+        <v>5.65</v>
+      </c>
+      <c r="Y52">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>7</v>
+      </c>
       <c r="AC52" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5202,22 +6117,25 @@
       <c r="AG52">
         <v>6.358171939849854</v>
       </c>
-      <c r="AH52" t="s">
-        <v>162</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301172</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-6.9</v>
@@ -5235,7 +6153,7 @@
         <v>84565.00999999999</v>
       </c>
       <c r="J53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5276,8 +6194,23 @@
       <c r="W53">
         <v>0.31</v>
       </c>
+      <c r="X53">
+        <v>2.95</v>
+      </c>
+      <c r="Y53">
+        <v>26.64</v>
+      </c>
+      <c r="Z53">
+        <v>3.42</v>
+      </c>
       <c r="AC53" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5285,22 +6218,25 @@
       <c r="AG53">
         <v>9.714448928833008</v>
       </c>
-      <c r="AH53" t="s">
-        <v>162</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301183</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -5318,7 +6254,7 @@
         <v>134727.33</v>
       </c>
       <c r="J54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K54">
         <v>7</v>
@@ -5359,8 +6295,23 @@
       <c r="W54">
         <v>1.22</v>
       </c>
+      <c r="X54">
+        <v>15.38</v>
+      </c>
+      <c r="Y54">
+        <v>115</v>
+      </c>
+      <c r="Z54">
+        <v>19.51</v>
+      </c>
       <c r="AC54" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5368,22 +6319,25 @@
       <c r="AG54">
         <v>11.15542507171631</v>
       </c>
-      <c r="AH54" t="s">
-        <v>163</v>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301217</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.77</v>
@@ -5401,7 +6355,7 @@
         <v>179778.37</v>
       </c>
       <c r="J55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K55">
         <v>38</v>
@@ -5442,8 +6396,23 @@
       <c r="W55">
         <v>-0.33</v>
       </c>
+      <c r="X55">
+        <v>4.76</v>
+      </c>
+      <c r="Y55">
+        <v>35.57</v>
+      </c>
+      <c r="Z55">
+        <v>5.89</v>
+      </c>
       <c r="AC55" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5451,22 +6420,25 @@
       <c r="AG55">
         <v>5.315407276153564</v>
       </c>
-      <c r="AH55" t="s">
-        <v>162</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301312</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-5.78</v>
@@ -5484,7 +6456,7 @@
         <v>64501.45</v>
       </c>
       <c r="J56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K56">
         <v>13</v>
@@ -5525,8 +6497,23 @@
       <c r="W56">
         <v>-0.35</v>
       </c>
+      <c r="X56">
+        <v>5.04</v>
+      </c>
+      <c r="Y56">
+        <v>57.6</v>
+      </c>
+      <c r="Z56">
+        <v>9.09</v>
+      </c>
       <c r="AC56" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5534,22 +6521,25 @@
       <c r="AG56">
         <v>-9.949092864990234</v>
       </c>
-      <c r="AH56" t="s">
-        <v>162</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301363</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>4.45</v>
@@ -5567,7 +6557,7 @@
         <v>121960.01</v>
       </c>
       <c r="J57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5608,8 +6598,23 @@
       <c r="W57">
         <v>-0.91</v>
       </c>
+      <c r="X57">
+        <v>-1.64</v>
+      </c>
+      <c r="Y57">
+        <v>26.32</v>
+      </c>
+      <c r="Z57">
+        <v>2.89</v>
+      </c>
       <c r="AC57" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5617,22 +6622,25 @@
       <c r="AG57">
         <v>55.48590087890625</v>
       </c>
-      <c r="AH57" t="s">
-        <v>162</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301377</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-5.8</v>
@@ -5650,7 +6658,7 @@
         <v>68119.42999999999</v>
       </c>
       <c r="J58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K58">
         <v>13</v>
@@ -5691,8 +6699,23 @@
       <c r="W58">
         <v>-1.16</v>
       </c>
+      <c r="X58">
+        <v>8.66</v>
+      </c>
+      <c r="Y58">
+        <v>77.98</v>
+      </c>
+      <c r="Z58">
+        <v>9.92</v>
+      </c>
       <c r="AC58" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5700,22 +6723,25 @@
       <c r="AG58">
         <v>3.03083872795105</v>
       </c>
-      <c r="AH58" t="s">
-        <v>162</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301389</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -5733,7 +6759,7 @@
         <v>154696.92</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K59">
         <v>37</v>
@@ -5774,8 +6800,23 @@
       <c r="W59">
         <v>-0.17</v>
       </c>
+      <c r="X59">
+        <v>20.01</v>
+      </c>
+      <c r="Y59">
+        <v>72.58</v>
+      </c>
+      <c r="Z59">
+        <v>20.01</v>
+      </c>
       <c r="AC59" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -5783,22 +6824,25 @@
       <c r="AG59">
         <v>26.07596588134766</v>
       </c>
-      <c r="AH59" t="s">
-        <v>162</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301413</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-0.68</v>
@@ -5816,7 +6860,7 @@
         <v>59724.82</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -5857,8 +6901,23 @@
       <c r="W60">
         <v>-0.76</v>
       </c>
+      <c r="X60">
+        <v>-2.14</v>
+      </c>
+      <c r="Y60">
+        <v>121.82</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
       <c r="AC60" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5866,22 +6925,25 @@
       <c r="AG60">
         <v>2.004709720611572</v>
       </c>
-      <c r="AH60" t="s">
-        <v>162</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301488</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>20</v>
@@ -5899,7 +6961,7 @@
         <v>105221.2</v>
       </c>
       <c r="J61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5940,8 +7002,23 @@
       <c r="W61">
         <v>3.06</v>
       </c>
+      <c r="X61">
+        <v>20</v>
+      </c>
+      <c r="Y61">
+        <v>115.33</v>
+      </c>
+      <c r="Z61">
+        <v>20</v>
+      </c>
       <c r="AC61" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -5949,22 +7026,25 @@
       <c r="AG61">
         <v>18.4561710357666</v>
       </c>
-      <c r="AH61" t="s">
-        <v>163</v>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301603</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-2.2</v>
@@ -5982,7 +7062,7 @@
         <v>84749.06</v>
       </c>
       <c r="J62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6023,8 +7103,23 @@
       <c r="W62">
         <v>0.05</v>
       </c>
+      <c r="X62">
+        <v>12.77</v>
+      </c>
+      <c r="Y62">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>18.03</v>
+      </c>
       <c r="AC62" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6032,22 +7127,25 @@
       <c r="AG62">
         <v>5.660763263702393</v>
       </c>
-      <c r="AH62" t="s">
-        <v>162</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301617</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>10.91</v>
@@ -6065,7 +7163,7 @@
         <v>64716.57</v>
       </c>
       <c r="J63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6106,8 +7204,23 @@
       <c r="W63">
         <v>-1.94</v>
       </c>
+      <c r="X63">
+        <v>4.69</v>
+      </c>
+      <c r="Y63">
+        <v>63.02</v>
+      </c>
+      <c r="Z63">
+        <v>5.24</v>
+      </c>
       <c r="AC63" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6115,22 +7228,25 @@
       <c r="AG63">
         <v>16.40516471862793</v>
       </c>
-      <c r="AH63" t="s">
-        <v>162</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688007</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.58</v>
@@ -6148,7 +7264,7 @@
         <v>89066.12</v>
       </c>
       <c r="J64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6189,8 +7305,23 @@
       <c r="W64">
         <v>-1.56</v>
       </c>
+      <c r="X64">
+        <v>0.22</v>
+      </c>
+      <c r="Y64">
+        <v>22.98</v>
+      </c>
+      <c r="Z64">
+        <v>1.82</v>
+      </c>
       <c r="AC64" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6198,22 +7329,25 @@
       <c r="AG64">
         <v>5.49028491973877</v>
       </c>
-      <c r="AH64" t="s">
-        <v>162</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688020</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-0.61</v>
@@ -6231,7 +7365,7 @@
         <v>58361.35</v>
       </c>
       <c r="J65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6272,8 +7406,23 @@
       <c r="W65">
         <v>0.32</v>
       </c>
+      <c r="X65">
+        <v>7.5</v>
+      </c>
+      <c r="Y65">
+        <v>77.3</v>
+      </c>
+      <c r="Z65">
+        <v>9.539999999999999</v>
+      </c>
       <c r="AC65" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6281,22 +7430,25 @@
       <c r="AG65">
         <v>4.377490043640137</v>
       </c>
-      <c r="AH65" t="s">
-        <v>162</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688041</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-2.68</v>
@@ -6314,7 +7466,7 @@
         <v>1277839.16</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -6355,8 +7507,23 @@
       <c r="W66">
         <v>-0.86</v>
       </c>
+      <c r="X66">
+        <v>6.8</v>
+      </c>
+      <c r="Y66">
+        <v>205.69</v>
+      </c>
+      <c r="Z66">
+        <v>7.16</v>
+      </c>
       <c r="AC66" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6364,22 +7531,25 @@
       <c r="AG66">
         <v>2.359102964401245</v>
       </c>
-      <c r="AH66" t="s">
-        <v>162</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688049</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>10.3</v>
@@ -6397,7 +7567,7 @@
         <v>182779.01</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -6438,8 +7608,23 @@
       <c r="W67">
         <v>7.04</v>
       </c>
+      <c r="X67">
+        <v>1.81</v>
+      </c>
+      <c r="Y67">
+        <v>65</v>
+      </c>
+      <c r="Z67">
+        <v>4.79</v>
+      </c>
       <c r="AC67" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6447,22 +7632,25 @@
       <c r="AG67">
         <v>3.961156129837036</v>
       </c>
-      <c r="AH67" t="s">
-        <v>162</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688062</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>6.07</v>
@@ -6480,7 +7668,7 @@
         <v>111568.15</v>
       </c>
       <c r="J68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6521,8 +7709,23 @@
       <c r="W68">
         <v>-0.39</v>
       </c>
+      <c r="X68">
+        <v>1.82</v>
+      </c>
+      <c r="Y68">
+        <v>48.6</v>
+      </c>
+      <c r="Z68">
+        <v>7.81</v>
+      </c>
       <c r="AC68" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6530,22 +7733,25 @@
       <c r="AG68">
         <v>3.957812309265137</v>
       </c>
-      <c r="AH68" t="s">
-        <v>162</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688066</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-6.67</v>
@@ -6563,7 +7769,7 @@
         <v>204997.36</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6604,8 +7810,23 @@
       <c r="W69">
         <v>-0.29</v>
       </c>
+      <c r="X69">
+        <v>-3.89</v>
+      </c>
+      <c r="Y69">
+        <v>35.97</v>
+      </c>
+      <c r="Z69">
+        <v>5.3</v>
+      </c>
       <c r="AC69" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6613,22 +7834,25 @@
       <c r="AG69">
         <v>-0.6185035705566406</v>
       </c>
-      <c r="AH69" t="s">
-        <v>162</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688077</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>10.36</v>
@@ -6646,7 +7870,7 @@
         <v>75391.44</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6687,8 +7911,23 @@
       <c r="W70">
         <v>0.93</v>
       </c>
+      <c r="X70">
+        <v>6.34</v>
+      </c>
+      <c r="Y70">
+        <v>45.44</v>
+      </c>
+      <c r="Z70">
+        <v>12.89</v>
+      </c>
       <c r="AC70" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6696,22 +7935,25 @@
       <c r="AG70">
         <v>0.7793460488319397</v>
       </c>
-      <c r="AH70" t="s">
-        <v>162</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688110</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>1.33</v>
@@ -6729,7 +7971,7 @@
         <v>382202.88</v>
       </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K71">
         <v>4</v>
@@ -6770,8 +8012,23 @@
       <c r="W71">
         <v>1</v>
       </c>
+      <c r="X71">
+        <v>16.43</v>
+      </c>
+      <c r="Y71">
+        <v>119.57</v>
+      </c>
+      <c r="Z71">
+        <v>17.98</v>
+      </c>
       <c r="AC71" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6779,22 +8036,25 @@
       <c r="AG71">
         <v>4.539790153503418</v>
       </c>
-      <c r="AH71" t="s">
-        <v>162</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688168</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>3.64</v>
@@ -6812,7 +8072,7 @@
         <v>61016.53</v>
       </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -6853,8 +8113,23 @@
       <c r="W72">
         <v>0.62</v>
       </c>
+      <c r="X72">
+        <v>2.8</v>
+      </c>
+      <c r="Y72">
+        <v>99</v>
+      </c>
+      <c r="Z72">
+        <v>3.26</v>
+      </c>
       <c r="AC72" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6862,22 +8137,25 @@
       <c r="AG72">
         <v>2.749755620956421</v>
       </c>
-      <c r="AH72" t="s">
-        <v>162</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688195</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>2.22</v>
@@ -6895,7 +8173,7 @@
         <v>75618.66</v>
       </c>
       <c r="J73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K73">
         <v>8</v>
@@ -6936,8 +8214,23 @@
       <c r="W73">
         <v>-0.08</v>
       </c>
+      <c r="X73">
+        <v>10.53</v>
+      </c>
+      <c r="Y73">
+        <v>69.66</v>
+      </c>
+      <c r="Z73">
+        <v>11.17</v>
+      </c>
       <c r="AC73" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6945,22 +8238,25 @@
       <c r="AG73">
         <v>3.976845264434814</v>
       </c>
-      <c r="AH73" t="s">
-        <v>162</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688205</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>6.27</v>
@@ -6978,7 +8274,7 @@
         <v>161777.61</v>
       </c>
       <c r="J74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7019,8 +8315,23 @@
       <c r="W74">
         <v>-0.14</v>
       </c>
+      <c r="X74">
+        <v>15.6</v>
+      </c>
+      <c r="Y74">
+        <v>120</v>
+      </c>
+      <c r="Z74">
+        <v>18.8</v>
+      </c>
       <c r="AC74" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7028,22 +8339,25 @@
       <c r="AG74">
         <v>-13.19443321228027</v>
       </c>
-      <c r="AH74" t="s">
-        <v>162</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688256</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>3.24</v>
@@ -7061,7 +8375,7 @@
         <v>2500309.61</v>
       </c>
       <c r="J75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7102,8 +8416,23 @@
       <c r="W75">
         <v>-0.66</v>
       </c>
+      <c r="X75">
+        <v>15.73</v>
+      </c>
+      <c r="Y75">
+        <v>1595.88</v>
+      </c>
+      <c r="Z75">
+        <v>16.31</v>
+      </c>
       <c r="AC75" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7111,22 +8440,25 @@
       <c r="AG75">
         <v>-3.523847579956055</v>
       </c>
-      <c r="AH75" t="s">
-        <v>162</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688313</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>14.93</v>
@@ -7144,7 +8476,7 @@
         <v>502682.47</v>
       </c>
       <c r="J76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K76">
         <v>12</v>
@@ -7185,8 +8517,23 @@
       <c r="W76">
         <v>-1.26</v>
       </c>
+      <c r="X76">
+        <v>6.38</v>
+      </c>
+      <c r="Y76">
+        <v>87.44</v>
+      </c>
+      <c r="Z76">
+        <v>7.95</v>
+      </c>
       <c r="AC76" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7194,22 +8541,25 @@
       <c r="AG76">
         <v>-4.16541051864624</v>
       </c>
-      <c r="AH76" t="s">
-        <v>162</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688343</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>13.32</v>
@@ -7227,7 +8577,7 @@
         <v>512427.88</v>
       </c>
       <c r="J77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7268,8 +8618,23 @@
       <c r="W77">
         <v>-1.43</v>
       </c>
+      <c r="X77">
+        <v>1.55</v>
+      </c>
+      <c r="Y77">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>3.62</v>
+      </c>
       <c r="AC77" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7277,22 +8642,25 @@
       <c r="AG77">
         <v>-13.23501491546631</v>
       </c>
-      <c r="AH77" t="s">
-        <v>162</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688372</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-2.59</v>
@@ -7310,7 +8678,7 @@
         <v>94493.73</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K78">
         <v>5</v>
@@ -7351,8 +8719,23 @@
       <c r="W78">
         <v>0.37</v>
       </c>
+      <c r="X78">
+        <v>4.88</v>
+      </c>
+      <c r="Y78">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>5.01</v>
+      </c>
       <c r="AC78" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7360,22 +8743,25 @@
       <c r="AG78">
         <v>-6.152995586395264</v>
       </c>
-      <c r="AH78" t="s">
-        <v>162</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688498</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>8.960000000000001</v>
@@ -7393,7 +8779,7 @@
         <v>165147.48</v>
       </c>
       <c r="J79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K79">
         <v>12</v>
@@ -7434,8 +8820,23 @@
       <c r="W79">
         <v>-0.75</v>
       </c>
+      <c r="X79">
+        <v>6.77</v>
+      </c>
+      <c r="Y79">
+        <v>320.14</v>
+      </c>
+      <c r="Z79">
+        <v>8.31</v>
+      </c>
       <c r="AC79" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7443,22 +8844,25 @@
       <c r="AG79">
         <v>12.52834129333496</v>
       </c>
-      <c r="AH79" t="s">
-        <v>162</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688508</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>8.869999999999999</v>
@@ -7476,7 +8880,7 @@
         <v>130055.39</v>
       </c>
       <c r="J80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K80">
         <v>6</v>
@@ -7517,8 +8921,23 @@
       <c r="W80">
         <v>-0.43</v>
       </c>
+      <c r="X80">
+        <v>2.96</v>
+      </c>
+      <c r="Y80">
+        <v>73.64</v>
+      </c>
+      <c r="Z80">
+        <v>4.14</v>
+      </c>
       <c r="AC80" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7526,22 +8945,25 @@
       <c r="AG80">
         <v>-1.857426285743713</v>
       </c>
-      <c r="AH80" t="s">
-        <v>162</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688521</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-0.11</v>
@@ -7559,7 +8981,7 @@
         <v>515091.97</v>
       </c>
       <c r="J81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7600,8 +9022,23 @@
       <c r="W81">
         <v>-0.54</v>
       </c>
+      <c r="X81">
+        <v>6.99</v>
+      </c>
+      <c r="Y81">
+        <v>153</v>
+      </c>
+      <c r="Z81">
+        <v>6.99</v>
+      </c>
       <c r="AC81" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7609,22 +9046,25 @@
       <c r="AG81">
         <v>-1.229122042655945</v>
       </c>
-      <c r="AH81" t="s">
-        <v>162</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688629</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-0.64</v>
@@ -7642,7 +9082,7 @@
         <v>308141.7</v>
       </c>
       <c r="J82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K82">
         <v>3</v>
@@ -7683,8 +9123,23 @@
       <c r="W82">
         <v>0.65</v>
       </c>
+      <c r="X82">
+        <v>15.12</v>
+      </c>
+      <c r="Y82">
+        <v>94.3</v>
+      </c>
+      <c r="Z82">
+        <v>17.73</v>
+      </c>
       <c r="AC82" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7692,22 +9147,25 @@
       <c r="AG82">
         <v>4.384420871734619</v>
       </c>
-      <c r="AH82" t="s">
-        <v>162</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688709</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-0.09</v>
@@ -7725,7 +9183,7 @@
         <v>79533.8</v>
       </c>
       <c r="J83" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -7766,8 +9224,23 @@
       <c r="W83">
         <v>-0.15</v>
       </c>
+      <c r="X83">
+        <v>1.82</v>
+      </c>
+      <c r="Y83">
+        <v>46.18</v>
+      </c>
+      <c r="Z83">
+        <v>2.49</v>
+      </c>
       <c r="AC83" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7775,22 +9248,25 @@
       <c r="AG83">
         <v>2.978352546691895</v>
       </c>
-      <c r="AH83" t="s">
-        <v>162</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688798</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-0.15</v>
@@ -7808,7 +9284,7 @@
         <v>99610.28999999999</v>
       </c>
       <c r="J84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K84">
         <v>6</v>
@@ -7849,8 +9325,23 @@
       <c r="W84">
         <v>0.02</v>
       </c>
+      <c r="X84">
+        <v>3.89</v>
+      </c>
+      <c r="Y84">
+        <v>99.3</v>
+      </c>
+      <c r="Z84">
+        <v>3.89</v>
+      </c>
       <c r="AC84" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7858,8 +9349,11 @@
       <c r="AG84">
         <v>4.90398645401001</v>
       </c>
-      <c r="AH84" t="s">
-        <v>162</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
